--- a/Dev/Files/Marketing/OasisDataBank.xlsx
+++ b/Dev/Files/Marketing/OasisDataBank.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="publishwhitepaper" sheetId="1" r:id="rId1"/>
@@ -270,13 +270,13 @@
     <t>Siebel Overview Test 7</t>
   </si>
   <si>
-    <t>Siebel Overview Test 9</t>
-  </si>
-  <si>
     <t>Siebel Overview Test 10</t>
   </si>
   <si>
     <t>Siebel Overview Test 11</t>
+  </si>
+  <si>
+    <t>Siebel Overview Test 12</t>
   </si>
 </sst>
 </file>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,10 +733,10 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1">
         <v>43447</v>
@@ -837,7 +837,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1">
         <v>43447</v>
@@ -902,7 +902,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1">
         <v>43447</v>
@@ -964,7 +964,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -979,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
